--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFDB05C-3926-4A9A-BE0B-61252064B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793FE8A-1D7B-44F4-8C07-9D02B511A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3315" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Project</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Ddmin*</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -148,12 +151,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,12 +662,15 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -686,7 +706,13 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
@@ -709,15 +735,37 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -735,13 +783,13 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
     </row>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793FE8A-1D7B-44F4-8C07-9D02B511A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616191-C836-472E-A9EF-11128A74916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="9495" yWindow="5190" windowWidth="17970" windowHeight="12030" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,10 +773,38 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616191-C836-472E-A9EF-11128A74916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07EBE1-6CF7-4FCF-AEF9-E3460EADF4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="5190" windowWidth="17970" windowHeight="12030" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,10 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +669,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -736,17 +743,19 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,13 +768,13 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -785,25 +794,25 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -811,17 +820,18 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07EBE1-6CF7-4FCF-AEF9-E3460EADF4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771C364-88ED-4D8D-B91B-F54C69649DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="5100" yWindow="2550" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Project</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,19 +766,19 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -783,18 +786,20 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771C364-88ED-4D8D-B91B-F54C69649DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BB3FF-14D7-4A4C-BDDD-46C7FC04FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2550" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="7005" yWindow="1455" windowWidth="20415" windowHeight="14475" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>4h</t>
   </si>
   <si>
-    <t>x</t>
+    <t>OOM</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BB3FF-14D7-4A4C-BDDD-46C7FC04FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADD5D0-D315-4244-BBDE-8109CC9F0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="1455" windowWidth="20415" windowHeight="14475" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="-28920" yWindow="3315" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>3</v>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADD5D0-D315-4244-BBDE-8109CC9F0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DAEC37-F4B6-40BC-8BD7-D9EF47B630C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3315" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="-21870" yWindow="3720" windowWidth="20415" windowHeight="14475" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +825,9 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DAEC37-F4B6-40BC-8BD7-D9EF47B630C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674229DE-7889-4787-8B9C-2C0F49729F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21870" yWindow="3720" windowWidth="20415" windowHeight="14475" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,11 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +679,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +738,13 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
@@ -760,6 +773,12 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -780,6 +799,9 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -800,6 +822,7 @@
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -820,6 +843,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -831,12 +859,20 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674229DE-7889-4787-8B9C-2C0F49729F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0BA009-4E55-4BD6-83A2-3A673C747433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +779,15 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -821,6 +830,12 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="K5" s="4"/>
     </row>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0BA009-4E55-4BD6-83A2-3A673C747433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD632CB-E05B-4433-ADDA-AAAF9E8097FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,13 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="4"/>

--- a/defects4j_benchmark.xlsx
+++ b/defects4j_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lubo9\Desktop\Workspace\ddminj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD632CB-E05B-4433-ADDA-AAAF9E8097FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B382DCC-9379-419E-839E-1C1C44BDB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-4515" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
+    <workbookView xWindow="465" yWindow="630" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{A6D3405A-B8B7-4A98-A54C-07860933E086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,12 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +686,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +815,12 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
